--- a/pile6_sect_2_all.xlsx
+++ b/pile6_sect_2_all.xlsx
@@ -484,7 +484,7 @@
         <v>29.17375</v>
       </c>
       <c r="D4">
-        <v>19.86999999999999</v>
+        <v>19.87</v>
       </c>
       <c r="E4">
         <v>19.74666666666667</v>
@@ -524,10 +524,10 @@
         <v>44065</v>
       </c>
       <c r="B6">
-        <v>32.06208333333334</v>
+        <v>32.06208333333333</v>
       </c>
       <c r="C6">
-        <v>34.36291666666666</v>
+        <v>34.36291666666667</v>
       </c>
       <c r="D6">
         <v>21.45916666666666</v>
@@ -550,7 +550,7 @@
         <v>31.99375</v>
       </c>
       <c r="C7">
-        <v>35.14125000000001</v>
+        <v>35.14125</v>
       </c>
       <c r="D7">
         <v>22.32333333333333</v>
@@ -576,10 +576,10 @@
         <v>32.18083333333333</v>
       </c>
       <c r="D8">
-        <v>26.15916666666666</v>
+        <v>26.15916666666667</v>
       </c>
       <c r="E8">
-        <v>15.49416666666666</v>
+        <v>15.49416666666667</v>
       </c>
       <c r="F8">
         <v>81.625</v>
@@ -593,13 +593,13 @@
         <v>44068</v>
       </c>
       <c r="B9">
-        <v>27.84999999999999</v>
+        <v>27.85</v>
       </c>
       <c r="C9">
-        <v>28.93500000000001</v>
+        <v>28.935</v>
       </c>
       <c r="D9">
-        <v>26.77499999999999</v>
+        <v>26.775</v>
       </c>
       <c r="E9">
         <v>13.44116666666667</v>
@@ -616,10 +616,10 @@
         <v>44069</v>
       </c>
       <c r="B10">
-        <v>27.12833333333334</v>
+        <v>27.12833333333333</v>
       </c>
       <c r="C10">
-        <v>27.80250000000001</v>
+        <v>27.8025</v>
       </c>
       <c r="D10">
         <v>25.64083333333333</v>
@@ -694,7 +694,7 @@
         <v>18.04291666666667</v>
       </c>
       <c r="E13">
-        <v>13.90666666666666</v>
+        <v>13.90666666666667</v>
       </c>
       <c r="F13">
         <v>77</v>
@@ -708,10 +708,10 @@
         <v>44073</v>
       </c>
       <c r="B14">
-        <v>23.72583333333334</v>
+        <v>23.72583333333333</v>
       </c>
       <c r="C14">
-        <v>24.91624999999999</v>
+        <v>24.91625</v>
       </c>
       <c r="D14">
         <v>18.38416666666667</v>
@@ -740,7 +740,7 @@
         <v>15.63958333333333</v>
       </c>
       <c r="E15">
-        <v>14.04916666666666</v>
+        <v>14.04916666666667</v>
       </c>
       <c r="F15">
         <v>73.5</v>
@@ -800,7 +800,7 @@
         <v>44077</v>
       </c>
       <c r="B18">
-        <v>24.54333333333334</v>
+        <v>24.54333333333333</v>
       </c>
       <c r="C18">
         <v>26.85791666666667</v>
@@ -823,13 +823,13 @@
         <v>44078</v>
       </c>
       <c r="B19">
-        <v>25.97791666666666</v>
+        <v>25.97791666666667</v>
       </c>
       <c r="C19">
         <v>27.75666666666666</v>
       </c>
       <c r="D19">
-        <v>14.12291666666666</v>
+        <v>14.12291666666667</v>
       </c>
       <c r="E19">
         <v>16.56791666666667</v>
@@ -861,7 +861,7 @@
         <v>85.41666666666667</v>
       </c>
       <c r="G20">
-        <v>4.400000000000001</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -915,13 +915,13 @@
         <v>44082</v>
       </c>
       <c r="B23">
-        <v>24.32041666666666</v>
+        <v>24.32041666666667</v>
       </c>
       <c r="C23">
         <v>25.48958333333333</v>
       </c>
       <c r="D23">
-        <v>19.42541666666666</v>
+        <v>19.42541666666667</v>
       </c>
       <c r="E23">
         <v>11.05941666666667</v>
@@ -961,7 +961,7 @@
         <v>44084</v>
       </c>
       <c r="B25">
-        <v>23.73541666666666</v>
+        <v>23.73541666666667</v>
       </c>
       <c r="C25">
         <v>25.26375</v>
@@ -993,7 +993,7 @@
         <v>15.83666666666667</v>
       </c>
       <c r="E26">
-        <v>9.641958333333331</v>
+        <v>9.641958333333333</v>
       </c>
       <c r="F26">
         <v>83.04166666666667</v>
@@ -1007,7 +1007,7 @@
         <v>44086</v>
       </c>
       <c r="B27">
-        <v>21.07958333333333</v>
+        <v>21.07958333333334</v>
       </c>
       <c r="C27">
         <v>21.03333333333333</v>
@@ -1045,7 +1045,7 @@
         <v>82.33333333333333</v>
       </c>
       <c r="G28">
-        <v>9.799999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1076,7 +1076,7 @@
         <v>44089</v>
       </c>
       <c r="B30">
-        <v>16.91333333333334</v>
+        <v>16.91333333333333</v>
       </c>
       <c r="C30">
         <v>15.55208333333333</v>
@@ -1108,7 +1108,7 @@
         <v>14.97083333333333</v>
       </c>
       <c r="E31">
-        <v>9.808458333333334</v>
+        <v>9.808458333333332</v>
       </c>
       <c r="F31">
         <v>93.45833333333333</v>
@@ -1148,13 +1148,13 @@
         <v>21.29166666666667</v>
       </c>
       <c r="C33">
-        <v>23.13458333333332</v>
+        <v>23.13458333333334</v>
       </c>
       <c r="D33">
-        <v>9.552916666666668</v>
+        <v>9.552916666666667</v>
       </c>
       <c r="E33">
-        <v>8.436250000000001</v>
+        <v>8.436249999999999</v>
       </c>
       <c r="F33">
         <v>79.875</v>
@@ -1171,7 +1171,7 @@
         <v>19.96458333333333</v>
       </c>
       <c r="C34">
-        <v>20.58416666666667</v>
+        <v>20.58416666666666</v>
       </c>
       <c r="D34">
         <v>11.87166666666667</v>
@@ -1197,10 +1197,10 @@
         <v>18.56458333333333</v>
       </c>
       <c r="D35">
-        <v>15.24583333333334</v>
+        <v>15.24583333333333</v>
       </c>
       <c r="E35">
-        <v>8.898416666666664</v>
+        <v>8.898416666666668</v>
       </c>
       <c r="F35">
         <v>78.875</v>
@@ -1243,10 +1243,10 @@
         <v>14.95791666666667</v>
       </c>
       <c r="D37">
-        <v>21.01541666666666</v>
+        <v>21.01541666666667</v>
       </c>
       <c r="E37">
-        <v>10.81533333333334</v>
+        <v>10.81533333333333</v>
       </c>
       <c r="F37">
         <v>70.125</v>
@@ -1292,7 +1292,7 @@
         <v>15.015</v>
       </c>
       <c r="E39">
-        <v>12.02708333333334</v>
+        <v>12.02708333333333</v>
       </c>
       <c r="F39">
         <v>94.66666666666667</v>
@@ -1401,10 +1401,10 @@
         <v>20.71333333333333</v>
       </c>
       <c r="C44">
-        <v>21.25416666666666</v>
+        <v>21.25416666666667</v>
       </c>
       <c r="D44">
-        <v>16.31833333333334</v>
+        <v>16.31833333333333</v>
       </c>
       <c r="E44">
         <v>10.52791666666667</v>
@@ -1424,13 +1424,13 @@
         <v>21.49708333333333</v>
       </c>
       <c r="C45">
-        <v>21.88166666666667</v>
+        <v>21.88166666666666</v>
       </c>
       <c r="D45">
         <v>16.40333333333333</v>
       </c>
       <c r="E45">
-        <v>11.40041666666666</v>
+        <v>11.40041666666667</v>
       </c>
       <c r="F45">
         <v>91.41666666666667</v>
@@ -1447,7 +1447,7 @@
         <v>22.1275</v>
       </c>
       <c r="C46">
-        <v>22.80333333333334</v>
+        <v>22.80333333333333</v>
       </c>
       <c r="D46">
         <v>16.1575</v>
@@ -1476,7 +1476,7 @@
         <v>14.75</v>
       </c>
       <c r="E47">
-        <v>10.73166666666666</v>
+        <v>10.73166666666667</v>
       </c>
       <c r="F47">
         <v>88.33333333333333</v>
@@ -1496,7 +1496,7 @@
         <v>24.1625</v>
       </c>
       <c r="D48">
-        <v>13.16083333333334</v>
+        <v>13.16083333333333</v>
       </c>
       <c r="E48">
         <v>10.89541666666667</v>
@@ -1536,7 +1536,7 @@
         <v>44109</v>
       </c>
       <c r="B50">
-        <v>22.58375000000001</v>
+        <v>22.58375</v>
       </c>
       <c r="C50">
         <v>24.88583333333333</v>
@@ -1585,13 +1585,13 @@
         <v>23.1875</v>
       </c>
       <c r="C52">
-        <v>25.05250000000001</v>
+        <v>25.0525</v>
       </c>
       <c r="D52">
         <v>12.1275</v>
       </c>
       <c r="E52">
-        <v>11.91708333333334</v>
+        <v>11.91708333333333</v>
       </c>
       <c r="F52">
         <v>90.29166666666667</v>
@@ -1660,7 +1660,7 @@
         <v>13.71416666666667</v>
       </c>
       <c r="E55">
-        <v>9.957500000000001</v>
+        <v>9.9575</v>
       </c>
       <c r="F55">
         <v>82.29166666666667</v>
@@ -1683,13 +1683,13 @@
         <v>14.44666666666667</v>
       </c>
       <c r="E56">
-        <v>8.823416666666665</v>
+        <v>8.823416666666667</v>
       </c>
       <c r="F56">
         <v>93.79166666666667</v>
       </c>
       <c r="G56">
-        <v>5.800000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1697,7 +1697,7 @@
         <v>44116</v>
       </c>
       <c r="B57">
-        <v>21.05791666666666</v>
+        <v>21.05791666666667</v>
       </c>
       <c r="C57">
         <v>22.17083333333333</v>
@@ -1706,7 +1706,7 @@
         <v>15.87083333333333</v>
       </c>
       <c r="E57">
-        <v>8.284124999999998</v>
+        <v>8.284125</v>
       </c>
       <c r="F57">
         <v>95.08333333333333</v>
@@ -1752,7 +1752,7 @@
         <v>13.79291666666666</v>
       </c>
       <c r="E59">
-        <v>5.322166666666666</v>
+        <v>5.322166666666667</v>
       </c>
       <c r="F59">
         <v>87.375</v>
@@ -1821,7 +1821,7 @@
         <v>11.11291666666667</v>
       </c>
       <c r="E62">
-        <v>4.374166666666666</v>
+        <v>4.374166666666667</v>
       </c>
       <c r="F62">
         <v>91.95833333333333</v>
@@ -1838,7 +1838,7 @@
         <v>15.61625</v>
       </c>
       <c r="C63">
-        <v>15.30833333333334</v>
+        <v>15.30833333333333</v>
       </c>
       <c r="D63">
         <v>9.382083333333332</v>
@@ -1861,10 +1861,10 @@
         <v>14.74208333333333</v>
       </c>
       <c r="C64">
-        <v>15.13708333333334</v>
+        <v>15.13708333333333</v>
       </c>
       <c r="D64">
-        <v>7.292291666666668</v>
+        <v>7.292291666666666</v>
       </c>
       <c r="E64">
         <v>1.681791666666667</v>
@@ -1887,10 +1887,10 @@
         <v>15.55833333333333</v>
       </c>
       <c r="D65">
-        <v>4.811125000000001</v>
+        <v>4.811125</v>
       </c>
       <c r="E65">
-        <v>0.1062916666666666</v>
+        <v>0.1062916666666667</v>
       </c>
       <c r="F65">
         <v>85.5</v>
@@ -1907,19 +1907,19 @@
         <v>12.16541666666667</v>
       </c>
       <c r="C66">
-        <v>12.92666666666666</v>
+        <v>12.92666666666667</v>
       </c>
       <c r="D66">
         <v>5.385124999999999</v>
       </c>
       <c r="E66">
-        <v>0.5442499999999999</v>
+        <v>0.54425</v>
       </c>
       <c r="F66">
         <v>87.125</v>
       </c>
       <c r="G66">
-        <v>5.400000000000001</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1930,13 +1930,13 @@
         <v>14.20666666666667</v>
       </c>
       <c r="C67">
-        <v>16.92083333333334</v>
+        <v>16.92083333333333</v>
       </c>
       <c r="D67">
         <v>2.290791666666667</v>
       </c>
       <c r="E67">
-        <v>4.699583333333332</v>
+        <v>4.699583333333334</v>
       </c>
       <c r="F67">
         <v>95.83333333333333</v>
@@ -1976,13 +1976,13 @@
         <v>11.31583333333333</v>
       </c>
       <c r="C69">
-        <v>10.41333333333334</v>
+        <v>10.41333333333333</v>
       </c>
       <c r="D69">
         <v>7.482541666666666</v>
       </c>
       <c r="E69">
-        <v>1.863583333333334</v>
+        <v>1.863583333333333</v>
       </c>
       <c r="F69">
         <v>83.20833333333333</v>
@@ -1999,7 +1999,7 @@
         <v>10.16541666666667</v>
       </c>
       <c r="C70">
-        <v>8.838750000000001</v>
+        <v>8.838749999999999</v>
       </c>
       <c r="D70">
         <v>10.22025</v>
@@ -2028,7 +2028,7 @@
         <v>4.492708333333334</v>
       </c>
       <c r="E71">
-        <v>7.442125000000001</v>
+        <v>7.442125</v>
       </c>
       <c r="F71">
         <v>91.16666666666667</v>
@@ -2071,7 +2071,7 @@
         <v>18.12416666666667</v>
       </c>
       <c r="D73">
-        <v>4.446249999999999</v>
+        <v>4.44625</v>
       </c>
       <c r="E73">
         <v>8.31875</v>
@@ -2140,10 +2140,10 @@
         <v>16.08958333333333</v>
       </c>
       <c r="D76">
-        <v>6.770708333333332</v>
+        <v>6.770708333333334</v>
       </c>
       <c r="E76">
-        <v>0.06470833333333344</v>
+        <v>0.06470833333333334</v>
       </c>
       <c r="F76">
         <v>91.04166666666667</v>
@@ -2166,7 +2166,7 @@
         <v>6.734375</v>
       </c>
       <c r="E77">
-        <v>5.111250000000001</v>
+        <v>5.11125</v>
       </c>
       <c r="F77">
         <v>88.41666666666667</v>
@@ -2189,7 +2189,7 @@
         <v>4.524833333333333</v>
       </c>
       <c r="E78">
-        <v>4.344749999999999</v>
+        <v>4.34475</v>
       </c>
       <c r="F78">
         <v>85.30434782608695</v>
@@ -2212,7 +2212,7 @@
         <v>4.062125</v>
       </c>
       <c r="E79">
-        <v>8.991499999999998</v>
+        <v>8.9915</v>
       </c>
       <c r="F79">
         <v>88.70833333333333</v>
@@ -2226,10 +2226,10 @@
         <v>44139</v>
       </c>
       <c r="B80">
-        <v>17.91833333333334</v>
+        <v>17.91833333333333</v>
       </c>
       <c r="C80">
-        <v>18.67541666666666</v>
+        <v>18.67541666666667</v>
       </c>
       <c r="D80">
         <v>5.063375</v>
@@ -2255,10 +2255,10 @@
         <v>15.91875</v>
       </c>
       <c r="D81">
-        <v>7.477708333333332</v>
+        <v>7.477708333333333</v>
       </c>
       <c r="E81">
-        <v>5.708000000000001</v>
+        <v>5.707999999999999</v>
       </c>
       <c r="F81">
         <v>75.875</v>
@@ -2272,10 +2272,10 @@
         <v>44141</v>
       </c>
       <c r="B82">
-        <v>9.912500000000001</v>
+        <v>9.9125</v>
       </c>
       <c r="C82">
-        <v>9.195958333333332</v>
+        <v>9.195958333333333</v>
       </c>
       <c r="D82">
         <v>15.89625</v>
@@ -2304,7 +2304,7 @@
         <v>16.85375</v>
       </c>
       <c r="E83">
-        <v>8.343624999999999</v>
+        <v>8.343625000000001</v>
       </c>
       <c r="F83">
         <v>71.25</v>
@@ -2318,10 +2318,10 @@
         <v>44143</v>
       </c>
       <c r="B84">
-        <v>7.873250000000002</v>
+        <v>7.87325</v>
       </c>
       <c r="C84">
-        <v>6.545666666666668</v>
+        <v>6.545666666666667</v>
       </c>
       <c r="D84">
         <v>18.28833333333333</v>
@@ -2341,7 +2341,7 @@
         <v>44144</v>
       </c>
       <c r="B85">
-        <v>7.524666666666666</v>
+        <v>7.524666666666668</v>
       </c>
       <c r="C85">
         <v>6.456166666666667</v>
@@ -2367,13 +2367,13 @@
         <v>7.517458333333334</v>
       </c>
       <c r="C86">
-        <v>6.720458333333332</v>
+        <v>6.720458333333333</v>
       </c>
       <c r="D86">
         <v>17.64083333333333</v>
       </c>
       <c r="E86">
-        <v>-0.8717916666666666</v>
+        <v>-0.8717916666666667</v>
       </c>
       <c r="F86">
         <v>85.45833333333333</v>
@@ -2387,13 +2387,13 @@
         <v>44146</v>
       </c>
       <c r="B87">
-        <v>8.440083333333332</v>
+        <v>8.440083333333334</v>
       </c>
       <c r="C87">
-        <v>7.161125000000001</v>
+        <v>7.161124999999999</v>
       </c>
       <c r="D87">
-        <v>14.35708333333334</v>
+        <v>14.35708333333333</v>
       </c>
       <c r="E87">
         <v>-0.4385416666666666</v>
@@ -2436,13 +2436,13 @@
         <v>10.2725</v>
       </c>
       <c r="C89">
-        <v>8.218208333333331</v>
+        <v>8.218208333333333</v>
       </c>
       <c r="D89">
-        <v>9.720583333333336</v>
+        <v>9.720583333333334</v>
       </c>
       <c r="E89">
-        <v>3.387333333333333</v>
+        <v>3.387333333333334</v>
       </c>
       <c r="F89">
         <v>85.83333333333333</v>
@@ -2462,10 +2462,10 @@
         <v>9.665000000000001</v>
       </c>
       <c r="D90">
-        <v>5.488666666666666</v>
+        <v>5.488666666666667</v>
       </c>
       <c r="E90">
-        <v>2.419041666666666</v>
+        <v>2.419041666666667</v>
       </c>
       <c r="F90">
         <v>86.54166666666667</v>
@@ -2482,13 +2482,13 @@
         <v>12.15291666666667</v>
       </c>
       <c r="C91">
-        <v>12.41791666666667</v>
+        <v>12.41791666666666</v>
       </c>
       <c r="D91">
         <v>3.062833333333333</v>
       </c>
       <c r="E91">
-        <v>1.449333333333334</v>
+        <v>1.449333333333333</v>
       </c>
       <c r="F91">
         <v>86.04166666666667</v>
@@ -2534,13 +2534,13 @@
         <v>1.137083333333333</v>
       </c>
       <c r="E93">
-        <v>3.076833333333334</v>
+        <v>3.076833333333333</v>
       </c>
       <c r="F93">
         <v>95.08333333333333</v>
       </c>
       <c r="G93">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,7 +2554,7 @@
         <v>15.31458333333333</v>
       </c>
       <c r="D94">
-        <v>1.873208333333334</v>
+        <v>1.873208333333333</v>
       </c>
       <c r="E94">
         <v>4.938125</v>
@@ -2574,13 +2574,13 @@
         <v>14.41833333333333</v>
       </c>
       <c r="C95">
-        <v>14.82041666666666</v>
+        <v>14.82041666666667</v>
       </c>
       <c r="D95">
         <v>2.6505</v>
       </c>
       <c r="E95">
-        <v>7.258541666666669</v>
+        <v>7.258541666666667</v>
       </c>
       <c r="F95">
         <v>84.95833333333333</v>
@@ -2600,7 +2600,7 @@
         <v>8.321125</v>
       </c>
       <c r="D96">
-        <v>6.539416666666668</v>
+        <v>6.539416666666667</v>
       </c>
       <c r="E96">
         <v>-0.5664583333333334</v>
@@ -2617,10 +2617,10 @@
         <v>44156</v>
       </c>
       <c r="B97">
-        <v>7.541583333333334</v>
+        <v>7.541583333333333</v>
       </c>
       <c r="C97">
-        <v>7.525541666666665</v>
+        <v>7.525541666666666</v>
       </c>
       <c r="D97">
         <v>4.752583333333333</v>
@@ -2632,7 +2632,7 @@
         <v>91.33333333333333</v>
       </c>
       <c r="G97">
-        <v>3.399999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2640,16 +2640,16 @@
         <v>44157</v>
       </c>
       <c r="B98">
-        <v>9.511666666666668</v>
+        <v>9.511666666666667</v>
       </c>
       <c r="C98">
-        <v>9.104583333333334</v>
+        <v>9.104583333333332</v>
       </c>
       <c r="D98">
-        <v>3.364666666666667</v>
+        <v>3.364666666666666</v>
       </c>
       <c r="E98">
-        <v>2.580124999999999</v>
+        <v>2.580125</v>
       </c>
       <c r="F98">
         <v>91.625</v>
@@ -2663,10 +2663,10 @@
         <v>44158</v>
       </c>
       <c r="B99">
-        <v>9.344583333333333</v>
+        <v>9.344583333333334</v>
       </c>
       <c r="C99">
-        <v>9.895416666666664</v>
+        <v>9.895416666666668</v>
       </c>
       <c r="D99">
         <v>3.918833333333334</v>
@@ -2732,10 +2732,10 @@
         <v>44161</v>
       </c>
       <c r="B102">
-        <v>9.370416666666666</v>
+        <v>9.370416666666667</v>
       </c>
       <c r="C102">
-        <v>8.486208333333332</v>
+        <v>8.486208333333334</v>
       </c>
       <c r="D102">
         <v>4.412458333333333</v>
@@ -2747,7 +2747,7 @@
         <v>91.83333333333333</v>
       </c>
       <c r="G102">
-        <v>7.200000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2755,10 +2755,10 @@
         <v>44162</v>
       </c>
       <c r="B103">
-        <v>9.667083333333334</v>
+        <v>9.667083333333332</v>
       </c>
       <c r="C103">
-        <v>8.859291666666669</v>
+        <v>8.859291666666666</v>
       </c>
       <c r="D103">
         <v>3.26275</v>
@@ -2801,7 +2801,7 @@
         <v>44164</v>
       </c>
       <c r="B105">
-        <v>9.793333333333331</v>
+        <v>9.793333333333333</v>
       </c>
       <c r="C105">
         <v>10.8225</v>
@@ -2847,7 +2847,7 @@
         <v>44166</v>
       </c>
       <c r="B107">
-        <v>9.738333333333332</v>
+        <v>9.738333333333333</v>
       </c>
       <c r="C107">
         <v>10.4525</v>
@@ -2870,7 +2870,7 @@
         <v>44167</v>
       </c>
       <c r="B108">
-        <v>8.815000000000001</v>
+        <v>8.815</v>
       </c>
       <c r="C108">
         <v>8.607916666666666</v>
@@ -2879,7 +2879,7 @@
         <v>3.414375</v>
       </c>
       <c r="E108">
-        <v>0.04624999999999996</v>
+        <v>0.04625000000000001</v>
       </c>
       <c r="F108">
         <v>91</v>
@@ -2893,7 +2893,7 @@
         <v>44168</v>
       </c>
       <c r="B109">
-        <v>9.909166666666668</v>
+        <v>9.909166666666666</v>
       </c>
       <c r="C109">
         <v>10.09333333333333</v>
@@ -2922,10 +2922,10 @@
         <v>10.84875</v>
       </c>
       <c r="D110">
-        <v>1.518791666666666</v>
+        <v>1.518791666666667</v>
       </c>
       <c r="E110">
-        <v>-0.8550833333333331</v>
+        <v>-0.8550833333333333</v>
       </c>
       <c r="F110">
         <v>84.875</v>
@@ -2968,10 +2968,10 @@
         <v>12.35166666666667</v>
       </c>
       <c r="D112">
-        <v>1.163708333333334</v>
+        <v>1.163708333333333</v>
       </c>
       <c r="E112">
-        <v>2.182333333333334</v>
+        <v>2.182333333333333</v>
       </c>
       <c r="F112">
         <v>96.70833333333333</v>
@@ -2991,7 +2991,7 @@
         <v>13.26875</v>
       </c>
       <c r="D113">
-        <v>0.9962083333333331</v>
+        <v>0.9962083333333333</v>
       </c>
       <c r="E113">
         <v>0.6099130434782609</v>
@@ -3034,13 +3034,13 @@
         <v>10.38</v>
       </c>
       <c r="C115">
-        <v>12.03166666666666</v>
+        <v>12.03166666666667</v>
       </c>
       <c r="D115">
         <v>1.063083333333333</v>
       </c>
       <c r="E115">
-        <v>-3.974291666666668</v>
+        <v>-3.974291666666666</v>
       </c>
       <c r="F115">
         <v>83.125</v>
@@ -3063,7 +3063,7 @@
         <v>1.101958333333333</v>
       </c>
       <c r="E116">
-        <v>-3.702916666666666</v>
+        <v>-3.702916666666667</v>
       </c>
       <c r="F116">
         <v>86.33333333333333</v>
@@ -3086,7 +3086,7 @@
         <v>1.221041666666667</v>
       </c>
       <c r="E117">
-        <v>-4.134375000000001</v>
+        <v>-4.134374999999999</v>
       </c>
       <c r="F117">
         <v>87.83333333333333</v>
@@ -3132,7 +3132,7 @@
         <v>1.239</v>
       </c>
       <c r="E119">
-        <v>-2.910874999999999</v>
+        <v>-2.910875</v>
       </c>
       <c r="F119">
         <v>89.75</v>
@@ -3149,7 +3149,7 @@
         <v>8.969583333333334</v>
       </c>
       <c r="C120">
-        <v>9.534166666666668</v>
+        <v>9.534166666666666</v>
       </c>
       <c r="D120">
         <v>1.61875</v>
@@ -3169,16 +3169,16 @@
         <v>44180</v>
       </c>
       <c r="B121">
-        <v>8.903749999999999</v>
+        <v>8.90375</v>
       </c>
       <c r="C121">
-        <v>9.018750000000001</v>
+        <v>9.018749999999999</v>
       </c>
       <c r="D121">
-        <v>1.674958333333334</v>
+        <v>1.674958333333333</v>
       </c>
       <c r="E121">
-        <v>-2.689583333333334</v>
+        <v>-2.689583333333333</v>
       </c>
       <c r="F121">
         <v>91.08333333333333</v>
@@ -3192,7 +3192,7 @@
         <v>44181</v>
       </c>
       <c r="B122">
-        <v>9.588333333333335</v>
+        <v>9.588333333333333</v>
       </c>
       <c r="C122">
         <v>9.470833333333333</v>
@@ -3215,10 +3215,10 @@
         <v>44182</v>
       </c>
       <c r="B123">
-        <v>9.256250000000003</v>
+        <v>9.25625</v>
       </c>
       <c r="C123">
-        <v>9.698333333333334</v>
+        <v>9.698333333333332</v>
       </c>
       <c r="D123">
         <v>1.424041666666667</v>
@@ -3261,7 +3261,7 @@
         <v>44184</v>
       </c>
       <c r="B125">
-        <v>8.896249999999998</v>
+        <v>8.89625</v>
       </c>
       <c r="C125">
         <v>9.225416666666666</v>
@@ -3270,7 +3270,7 @@
         <v>1.160583333333333</v>
       </c>
       <c r="E125">
-        <v>-1.485458333333333</v>
+        <v>-1.485458333333334</v>
       </c>
       <c r="F125">
         <v>94.95833333333333</v>
@@ -3313,7 +3313,7 @@
         <v>9.118333333333334</v>
       </c>
       <c r="D127">
-        <v>1.761291666666666</v>
+        <v>1.761291666666667</v>
       </c>
       <c r="E127">
         <v>2.768333333333333</v>
@@ -3330,10 +3330,10 @@
         <v>44187</v>
       </c>
       <c r="B128">
-        <v>9.384999999999998</v>
+        <v>9.385</v>
       </c>
       <c r="C128">
-        <v>9.504166666666668</v>
+        <v>9.504166666666666</v>
       </c>
       <c r="D128">
         <v>1.776416666666667</v>
@@ -3353,7 +3353,7 @@
         <v>44188</v>
       </c>
       <c r="B129">
-        <v>9.447499999999998</v>
+        <v>9.4475</v>
       </c>
       <c r="C129">
         <v>10.2275</v>
@@ -3362,7 +3362,7 @@
         <v>1.270541666666667</v>
       </c>
       <c r="E129">
-        <v>-0.02837500000000002</v>
+        <v>-0.02837499999999999</v>
       </c>
       <c r="F129">
         <v>94.75</v>
@@ -3376,7 +3376,7 @@
         <v>44189</v>
       </c>
       <c r="B130">
-        <v>9.218333333333332</v>
+        <v>9.218333333333334</v>
       </c>
       <c r="C130">
         <v>10.08708333333333</v>
@@ -3385,7 +3385,7 @@
         <v>1.4285</v>
       </c>
       <c r="E130">
-        <v>-0.5793749999999999</v>
+        <v>-0.579375</v>
       </c>
       <c r="F130">
         <v>96.375</v>
@@ -3399,7 +3399,7 @@
         <v>44190</v>
       </c>
       <c r="B131">
-        <v>9.419583333333335</v>
+        <v>9.419583333333334</v>
       </c>
       <c r="C131">
         <v>10.12416666666667</v>
@@ -3422,7 +3422,7 @@
         <v>44191</v>
       </c>
       <c r="B132">
-        <v>9.459166666666665</v>
+        <v>9.459166666666667</v>
       </c>
       <c r="C132">
         <v>10.38708333333333</v>
@@ -3448,13 +3448,13 @@
         <v>9.04125</v>
       </c>
       <c r="C133">
-        <v>9.641250000000001</v>
+        <v>9.641249999999999</v>
       </c>
       <c r="D133">
-        <v>0.9457916666666669</v>
+        <v>0.9457916666666666</v>
       </c>
       <c r="E133">
-        <v>-3.602708333333333</v>
+        <v>-3.602708333333334</v>
       </c>
       <c r="F133">
         <v>89.83333333333333</v>
@@ -3468,13 +3468,13 @@
         <v>44193</v>
       </c>
       <c r="B134">
-        <v>9.265416666666665</v>
+        <v>9.265416666666667</v>
       </c>
       <c r="C134">
         <v>9.432083333333333</v>
       </c>
       <c r="D134">
-        <v>0.6532916666666665</v>
+        <v>0.6532916666666667</v>
       </c>
       <c r="E134">
         <v>-2.078041666666667</v>
@@ -3491,7 +3491,7 @@
         <v>44194</v>
       </c>
       <c r="B135">
-        <v>9.58333333333333</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="C135">
         <v>9.484166666666667</v>
@@ -3537,16 +3537,16 @@
         <v>44196</v>
       </c>
       <c r="B137">
-        <v>9.652500000000002</v>
+        <v>9.6525</v>
       </c>
       <c r="C137">
-        <v>9.182499999999997</v>
+        <v>9.182499999999999</v>
       </c>
       <c r="D137">
-        <v>0.4936666666666668</v>
+        <v>0.4936666666666667</v>
       </c>
       <c r="E137">
-        <v>0.6207083333333334</v>
+        <v>0.6207083333333333</v>
       </c>
       <c r="F137">
         <v>94.16666666666667</v>
@@ -3566,7 +3566,7 @@
         <v>9.304583333333333</v>
       </c>
       <c r="D138">
-        <v>0.7399999999999998</v>
+        <v>0.7400000000000001</v>
       </c>
       <c r="E138">
         <v>-0.5305416666666667</v>
@@ -3586,7 +3586,7 @@
         <v>8.9925</v>
       </c>
       <c r="C139">
-        <v>9.418749999999999</v>
+        <v>9.418750000000001</v>
       </c>
       <c r="D139">
         <v>0.9365</v>
@@ -3629,13 +3629,13 @@
         <v>44200</v>
       </c>
       <c r="B141">
-        <v>8.237250000000001</v>
+        <v>8.23725</v>
       </c>
       <c r="C141">
         <v>9.201666666666666</v>
       </c>
       <c r="D141">
-        <v>1.234916666666666</v>
+        <v>1.234916666666667</v>
       </c>
       <c r="E141">
         <v>-5.379083333333334</v>
@@ -3655,7 +3655,7 @@
         <v>7.144458333333334</v>
       </c>
       <c r="C142">
-        <v>8.148041666666662</v>
+        <v>8.148041666666666</v>
       </c>
       <c r="D142">
         <v>1.706</v>
@@ -3675,10 +3675,10 @@
         <v>44202</v>
       </c>
       <c r="B143">
-        <v>6.782208333333334</v>
+        <v>6.782208333333333</v>
       </c>
       <c r="C143">
-        <v>6.914250000000002</v>
+        <v>6.91425</v>
       </c>
       <c r="D143">
         <v>2.105916666666667</v>
@@ -3698,16 +3698,16 @@
         <v>44203</v>
       </c>
       <c r="B144">
-        <v>6.871541666666668</v>
+        <v>6.871541666666666</v>
       </c>
       <c r="C144">
-        <v>6.460000000000001</v>
+        <v>6.46</v>
       </c>
       <c r="D144">
         <v>1.516958333333333</v>
       </c>
       <c r="E144">
-        <v>-6.892750000000002</v>
+        <v>-6.892749999999999</v>
       </c>
       <c r="F144">
         <v>90.375</v>
@@ -3770,7 +3770,7 @@
         <v>5.605583333333333</v>
       </c>
       <c r="C147">
-        <v>4.743500000000001</v>
+        <v>4.7435</v>
       </c>
       <c r="D147">
         <v>1.614083333333333</v>
@@ -3790,16 +3790,16 @@
         <v>44207</v>
       </c>
       <c r="B148">
-        <v>6.252500000000001</v>
+        <v>6.2525</v>
       </c>
       <c r="C148">
-        <v>4.831999999999999</v>
+        <v>4.832</v>
       </c>
       <c r="D148">
         <v>0.9064583333333333</v>
       </c>
       <c r="E148">
-        <v>-9.769166666666669</v>
+        <v>-9.769166666666667</v>
       </c>
       <c r="F148">
         <v>86.75</v>
@@ -3819,7 +3819,7 @@
         <v>5.24125</v>
       </c>
       <c r="D149">
-        <v>0.6962083333333334</v>
+        <v>0.6962083333333333</v>
       </c>
       <c r="E149">
         <v>-11.78166666666667</v>
@@ -3842,7 +3842,7 @@
         <v>4.965375</v>
       </c>
       <c r="D150">
-        <v>0.3222083333333334</v>
+        <v>0.3222083333333333</v>
       </c>
       <c r="E150">
         <v>-18.23</v>
@@ -3865,7 +3865,7 @@
         <v>4.208583333333333</v>
       </c>
       <c r="D151">
-        <v>0.4573333333333332</v>
+        <v>0.4573333333333334</v>
       </c>
       <c r="E151">
         <v>-23.07625</v>
@@ -3882,7 +3882,7 @@
         <v>44211</v>
       </c>
       <c r="B152">
-        <v>3.910750000000001</v>
+        <v>3.91075</v>
       </c>
       <c r="C152">
         <v>3.321291666666667</v>
@@ -3908,7 +3908,7 @@
         <v>3.836208333333333</v>
       </c>
       <c r="C153">
-        <v>2.878708333333334</v>
+        <v>2.878708333333333</v>
       </c>
       <c r="D153">
         <v>1.447291666666667</v>
@@ -3931,7 +3931,7 @@
         <v>4.174416666666667</v>
       </c>
       <c r="C154">
-        <v>2.783166666666666</v>
+        <v>2.783166666666667</v>
       </c>
       <c r="D154">
         <v>2.264833333333333</v>
@@ -3951,7 +3951,7 @@
         <v>44214</v>
       </c>
       <c r="B155">
-        <v>3.999833333333334</v>
+        <v>3.999833333333333</v>
       </c>
       <c r="C155">
         <v>2.816708333333333</v>
@@ -3974,7 +3974,7 @@
         <v>44215</v>
       </c>
       <c r="B156">
-        <v>4.244791666666666</v>
+        <v>4.244791666666667</v>
       </c>
       <c r="C156">
         <v>3.019791666666666</v>
@@ -3983,7 +3983,7 @@
         <v>2.524666666666667</v>
       </c>
       <c r="E156">
-        <v>-3.523083333333333</v>
+        <v>-3.523083333333334</v>
       </c>
       <c r="F156">
         <v>93.79166666666667</v>
@@ -4000,13 +4000,13 @@
         <v>4.144458333333334</v>
       </c>
       <c r="C157">
-        <v>3.256083333333334</v>
+        <v>3.256083333333333</v>
       </c>
       <c r="D157">
         <v>2.399041666666667</v>
       </c>
       <c r="E157">
-        <v>-4.509416666666666</v>
+        <v>-4.509416666666667</v>
       </c>
       <c r="F157">
         <v>91.70833333333333</v>
@@ -4023,7 +4023,7 @@
         <v>3.81175</v>
       </c>
       <c r="C158">
-        <v>3.445458333333334</v>
+        <v>3.445458333333333</v>
       </c>
       <c r="D158">
         <v>1.298958333333333</v>
@@ -4049,7 +4049,7 @@
         <v>3.39175</v>
       </c>
       <c r="D159">
-        <v>0.5924166666666666</v>
+        <v>0.5924166666666667</v>
       </c>
       <c r="E159">
         <v>-9.970416666666667</v>
@@ -4069,13 +4069,13 @@
         <v>3.795166666666667</v>
       </c>
       <c r="C160">
-        <v>3.498166666666668</v>
+        <v>3.498166666666667</v>
       </c>
       <c r="D160">
         <v>0.4477916666666666</v>
       </c>
       <c r="E160">
-        <v>-2.986749999999999</v>
+        <v>-2.98675</v>
       </c>
       <c r="F160">
         <v>93.33333333333333</v>
@@ -4089,16 +4089,16 @@
         <v>44220</v>
       </c>
       <c r="B161">
-        <v>4.648833333333331</v>
+        <v>4.648833333333333</v>
       </c>
       <c r="C161">
         <v>4.155958333333333</v>
       </c>
       <c r="D161">
-        <v>0.4837083333333332</v>
+        <v>0.4837083333333334</v>
       </c>
       <c r="E161">
-        <v>0.5332499999999999</v>
+        <v>0.53325</v>
       </c>
       <c r="F161">
         <v>96.33333333333333</v>
@@ -4121,7 +4121,7 @@
         <v>0.6974166666666667</v>
       </c>
       <c r="E162">
-        <v>0.3883749999999999</v>
+        <v>0.388375</v>
       </c>
       <c r="F162">
         <v>97.625</v>
@@ -4141,10 +4141,10 @@
         <v>5.088416666666666</v>
       </c>
       <c r="D163">
-        <v>0.6851666666666668</v>
+        <v>0.6851666666666666</v>
       </c>
       <c r="E163">
-        <v>0.4143749999999999</v>
+        <v>0.414375</v>
       </c>
       <c r="F163">
         <v>94.70833333333333</v>
@@ -4158,7 +4158,7 @@
         <v>44223</v>
       </c>
       <c r="B164">
-        <v>5.008833333333334</v>
+        <v>5.008833333333333</v>
       </c>
       <c r="C164">
         <v>5.427125</v>
@@ -4167,7 +4167,7 @@
         <v>0.7654166666666667</v>
       </c>
       <c r="E164">
-        <v>0.2362916666666668</v>
+        <v>0.2362916666666667</v>
       </c>
       <c r="F164">
         <v>98.25</v>
@@ -4181,10 +4181,10 @@
         <v>44224</v>
       </c>
       <c r="B165">
-        <v>4.922291666666665</v>
+        <v>4.922291666666667</v>
       </c>
       <c r="C165">
-        <v>5.588374999999999</v>
+        <v>5.588375</v>
       </c>
       <c r="D165">
         <v>0.9369999999999999</v>
@@ -4207,10 +4207,10 @@
         <v>4.8775</v>
       </c>
       <c r="C166">
-        <v>5.645749999999999</v>
+        <v>5.64575</v>
       </c>
       <c r="D166">
-        <v>0.9855416666666664</v>
+        <v>0.9855416666666666</v>
       </c>
       <c r="E166">
         <v>-2.829083333333333</v>
@@ -4227,7 +4227,7 @@
         <v>44226</v>
       </c>
       <c r="B167">
-        <v>5.093125000000001</v>
+        <v>5.093125</v>
       </c>
       <c r="C167">
         <v>5.829083333333333</v>
@@ -4250,7 +4250,7 @@
         <v>44227</v>
       </c>
       <c r="B168">
-        <v>4.698458333333335</v>
+        <v>4.698458333333334</v>
       </c>
       <c r="C168">
         <v>5.593083333333333</v>
@@ -4273,13 +4273,13 @@
         <v>44228</v>
       </c>
       <c r="B169">
-        <v>4.213500000000001</v>
+        <v>4.2135</v>
       </c>
       <c r="C169">
-        <v>5.181333333333333</v>
+        <v>5.181333333333334</v>
       </c>
       <c r="D169">
-        <v>1.566166666666666</v>
+        <v>1.566166666666667</v>
       </c>
       <c r="E169">
         <v>-9.869999999999999</v>
@@ -4305,7 +4305,7 @@
         <v>1.554083333333333</v>
       </c>
       <c r="E170">
-        <v>-17.80416666666666</v>
+        <v>-17.80416666666667</v>
       </c>
       <c r="F170">
         <v>83.45833333333333</v>
@@ -4325,7 +4325,7 @@
         <v>3.458375</v>
       </c>
       <c r="D171">
-        <v>0.9177499999999998</v>
+        <v>0.91775</v>
       </c>
       <c r="E171">
         <v>-15.64125</v>
@@ -4342,7 +4342,7 @@
         <v>44231</v>
       </c>
       <c r="B172">
-        <v>2.455958333333334</v>
+        <v>2.455958333333333</v>
       </c>
       <c r="C172">
         <v>2.627708333333333</v>
@@ -4391,7 +4391,7 @@
         <v>2.079458333333333</v>
       </c>
       <c r="C174">
-        <v>1.648583333333333</v>
+        <v>1.648583333333334</v>
       </c>
       <c r="D174">
         <v>1.097458333333333</v>
@@ -4417,7 +4417,7 @@
         <v>1.570625</v>
       </c>
       <c r="D175">
-        <v>0.7601666666666665</v>
+        <v>0.7601666666666667</v>
       </c>
       <c r="E175">
         <v>-8.535291666666668</v>
